--- a/biology/Botanique/Boletus_appendiculatus/Boletus_appendiculatus.xlsx
+++ b/biology/Botanique/Boletus_appendiculatus/Boletus_appendiculatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Butyriboletus appendiculatus
 Butyriboletus appendiculatus, le Bolet appendiculé, anciennement Boletus appendiculatus, est une espèce comestible de champignon (Fungi) basidiomycète du genre Butyriboletus dans la famille des Boletaceae. Il est caractérisé par ses pores jaunes bleuissants, sa chair non ou peu bleuissante à la coupe et son biotope sous feuillus.
@@ -512,65 +524,242 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Butyriboletus appendiculatus (Schaeffer) D. Arora &amp; J. L. Frank, 2014[1].
-L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus appendiculatus Schaeff., 1774[1].
-Synonymes
-Butyriboletus appendiculatus a pour synonymes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Butyriboletus appendiculatus (Schaeffer) D. Arora &amp; J. L. Frank, 2014.
+L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus appendiculatus Schaeff., 1774.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Boletus_appendiculatus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boletus_appendiculatus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Butyriboletus appendiculatus a pour synonymes :
 Boletus appendiculatus Schaeff., 1774
 Boletus radicans var. appendiculatus (Schaeff.) Pers., 1801
 Dictyopus appendiculatus var. appendiculatus (Schaeff.) Quél., 1886
 Dictyopus appendiculatus (Schaeffer) Quélet, 1886
 Suillus appendiculatus (Schaeff.) Kuntze, 1898
-Tubiporus appendiculatus (Schaeff.) Ricken, 1918
-Phylogénie
-Il fut décrit pour la première fois sous le nom Boletus appendiculatus par le botaniste allemand Jacob Christian Schäffer en 1777, nom entériné par Fries en 1821, puis récemment recombiné dans le nouveau genre Butyriboletus. Avant sa recombinaison dans le genre Butyriboletus, lorsqu'il était encore connu sous le nom de Boletus appendiculatus, il était classé dans la section Appendiculati du genre Boletus. Parmi les bolets « munis de réseau[2] sur le pied », il était le type cette section Appendiculati, insérée entre la section des Edules (cèpes vrais[3], aujourd'hui le genre Boletus sensu strico) et celle des Calopodes, (aujourd'hui recombinée dans le genre Caloboletus) qui ont la chair amère. Il est voisin des cèpes, dont il possède l'aspect trapu et l'excellente comestibilité[4].
-La section Appendiculati Konrad et Maublanc 1935 ex Estades et Lannoy, 2001, regroupait 4 à 6 espèces selon l'expérience et la sensibilité des auteurs[5], en l'absence de différences marquantes au niveau microscopique[6]. Elle était circonscrite par les caractères suivants, aujourd'hui définissant ceux du genre Butyriboletus : 
+Tubiporus appendiculatus (Schaeff.) Ricken, 1918</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Boletus_appendiculatus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boletus_appendiculatus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Il fut décrit pour la première fois sous le nom Boletus appendiculatus par le botaniste allemand Jacob Christian Schäffer en 1777, nom entériné par Fries en 1821, puis récemment recombiné dans le nouveau genre Butyriboletus. Avant sa recombinaison dans le genre Butyriboletus, lorsqu'il était encore connu sous le nom de Boletus appendiculatus, il était classé dans la section Appendiculati du genre Boletus. Parmi les bolets « munis de réseau sur le pied », il était le type cette section Appendiculati, insérée entre la section des Edules (cèpes vrais, aujourd'hui le genre Boletus sensu strico) et celle des Calopodes, (aujourd'hui recombinée dans le genre Caloboletus) qui ont la chair amère. Il est voisin des cèpes, dont il possède l'aspect trapu et l'excellente comestibilité.
+La section Appendiculati Konrad et Maublanc 1935 ex Estades et Lannoy, 2001, regroupait 4 à 6 espèces selon l'expérience et la sensibilité des auteurs, en l'absence de différences marquantes au niveau microscopique. Elle était circonscrite par les caractères suivants, aujourd'hui définissant ceux du genre Butyriboletus : 
 Stipe central, orné d’un réseau sur le pied, parfois limité au sommet, parfois zoné de rosâtre ou rougeâtre vers la base,
 Chapeau tomenteux à glabre, légèrement feutré, parfois finement craquelé,
 Chair jaune à jaunâtre, rarement blanchâtre, douce (jamais amère), peu ou non bleuissante,
-Pores et tubes jaune clair dans la jeunesse, plus foncés avec l'âge.
-Étymologie
-L'épithète spécifique appendiculatus fait référence à son stipe appendiculé, orné d'un réseau.
+Pores et tubes jaune clair dans la jeunesse, plus foncés avec l'âge.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Boletus_appendiculatus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boletus_appendiculatus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique appendiculatus fait référence à son stipe appendiculé, orné d'un réseau.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Boletus_appendiculatus</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Boletus_appendiculatus</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chapeau 8~14 (20) cm de diamètre, robuste, charnu et épais, d'abord hémisphérique puis convexe, à la fin obtusément étalé, sans mamelon central[7]. Cuticule non séparable (adnée), sèche, veloutée, lisse ou chagrinée, finement craquelée ou tesselée, typiquement brun chamois[7], brun fauve[8], brun chaud[8], brun ochracé[7], brun rosâtre ou bai brun clair[7]. Rouge carmin à pourpre groseille dans la variété regius de Konrad[7]. Marge épaisse, concolore, incurvée puis arrondie[9], à la fin réfléchie, parfois sinueuse[7].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chapeau 8~14 (20) cm de diamètre, robuste, charnu et épais, d'abord hémisphérique puis convexe, à la fin obtusément étalé, sans mamelon central. Cuticule non séparable (adnée), sèche, veloutée, lisse ou chagrinée, finement craquelée ou tesselée, typiquement brun chamois, brun fauve, brun chaud, brun ochracé, brun rosâtre ou bai brun clair. Rouge carmin à pourpre groseille dans la variété regius de Konrad. Marge épaisse, concolore, incurvée puis arrondie, à la fin réfléchie, parfois sinueuse.
 Hyménophore : pores et tubes jaunes (citrin pâle) bleuissant typiquement à la pression où à la coupe. Sporée brun olive.
 Stipe: 5~15 x 2~5 cm, robuste et trapu, cylindrique ou clavé, à base souvent atténuée ou radicante, jaune, réticulé de jaune sur fond jaune, citrin au sommet, plus foncé vers le bas, un peu rougeâtre sale à la base ; réseau d'étendue variable, subtil ou bien marqué, concolore ou un peu plus roussâtre que le stipe.
-Chair : ferme et épaisse mais vite véreuse comme le Cèpe, blanche à jaune pâle, presque immuable (non bleuissante) ou occasionnellement légèrement bleuissante à la coupe dans le chapeau, près des tubes, brun rougeâtre clair à la base du stipe. Odeur agréable, huileuse ou d'écale de noix, de viande crue, de biscotte[10].
-Réactions chimiques
-Réagit en brun-rouge à la potasse sur la cuticule[11].
-Caractéristiques microscopiques
-Ses spores mesurent 12-15,5 x 4,5-5 µm.
+Chair : ferme et épaisse mais vite véreuse comme le Cèpe, blanche à jaune pâle, presque immuable (non bleuissante) ou occasionnellement légèrement bleuissante à la coupe dans le chapeau, près des tubes, brun rougeâtre clair à la base du stipe. Odeur agréable, huileuse ou d'écale de noix, de viande crue, de biscotte.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Boletus_appendiculatus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boletus_appendiculatus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Réactions chimiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Réagit en brun-rouge à la potasse sur la cuticule.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Boletus_appendiculatus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boletus_appendiculatus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Caractéristiques microscopiques</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses spores mesurent 12-15,5 x 4,5-5 µm.
 </t>
         </is>
       </c>
